--- a/static/reductions/faculty_reduction_per_semester.xlsx
+++ b/static/reductions/faculty_reduction_per_semester.xlsx
@@ -72,7 +72,7 @@
     <t>% від заг.кільк.</t>
   </si>
   <si>
-    <t>математика</t>
+    <t>Інформатика</t>
   </si>
   <si>
     <t>1 курс</t>
@@ -1548,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="35" t="n">
         <v>3</v>
@@ -1572,10 +1572,10 @@
         <v>16</v>
       </c>
       <c r="K13" s="23" t="n">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>100</v>
+        <v>114.2857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1584,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="70" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>3</v>
@@ -1608,10 +1608,10 @@
         <v>16</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>100</v>
+        <v>114.2857142857143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
